--- a/data/iso_provinces.xlsx
+++ b/data/iso_provinces.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre Computer\Documents\IE_classes\group_dat_2\predict_covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F31625B-0A29-4814-96A8-0DFEB8F30CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A8A779-6376-47FB-BD43-94F4C404A67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4512" yWindow="960" windowWidth="19680" windowHeight="11952" xr2:uid="{D9733E20-DD9E-4591-B427-B8CBF6217CBC}"/>
+    <workbookView xWindow="1980" yWindow="696" windowWidth="19680" windowHeight="11952" xr2:uid="{D9733E20-DD9E-4591-B427-B8CBF6217CBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="127">
   <si>
     <t>GA</t>
   </si>
@@ -333,6 +333,165 @@
   </si>
   <si>
     <t>poblacion</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>Communidad</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>GI</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>GU</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>indep1</t>
+  </si>
+  <si>
+    <t>indep2</t>
   </si>
 </sst>
 </file>
@@ -697,691 +856,859 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35682CD7-42CF-4330-8476-98D43BB04643}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>72</v>
       </c>
       <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>388270</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>388270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1879888</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>1879888</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
+      <c r="B4">
         <v>727945</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>65</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="B5">
         <v>333940</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>1018784</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>1018784</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>157664</v>
+      </c>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>157664</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>672137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
-        <v>672137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>1171543</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
-        <v>1171543</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>5743402</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
-        <v>5743402</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>53</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>1159443</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
         <v>1</v>
       </c>
-      <c r="C11">
-        <v>1159443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12">
+        <v>357650</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
-        <v>357650</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13">
+        <v>391850</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
-        <v>391850</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>1244049</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="C14">
-        <v>1244049</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>582905</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="C15">
-        <v>582905</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>63</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16">
+        <v>585590</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
         <v>4</v>
       </c>
-      <c r="C16">
-        <v>585590</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17">
+        <v>495045</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
         <v>3</v>
       </c>
-      <c r="C17">
-        <v>495045</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18">
+        <v>781451</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="C18">
-        <v>781451</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>66</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <v>1121815</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>1121815</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20">
+        <v>196139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
         <v>3</v>
       </c>
-      <c r="C20">
-        <v>196139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>62</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <v>727121</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" t="s">
         <v>1</v>
       </c>
-      <c r="C21">
-        <v>727121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>781788</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" t="s">
         <v>14</v>
       </c>
-      <c r="C22">
-        <v>781788</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23">
+        <v>919168</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="C23">
-        <v>919168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24">
+        <v>261995</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s">
         <v>3</v>
       </c>
-      <c r="C24">
-        <v>261995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <v>524278</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
         <v>6</v>
       </c>
-      <c r="C25">
-        <v>524278</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26">
+        <v>222687</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" t="s">
         <v>27</v>
       </c>
-      <c r="C26">
-        <v>222687</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <v>631381</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="C27">
-        <v>631381</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28">
+        <v>456439</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" t="s">
         <v>30</v>
       </c>
-      <c r="C28">
-        <v>456439</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29">
+        <v>438517</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
         <v>32</v>
       </c>
-      <c r="C29">
-        <v>438517</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30">
+        <v>327946</v>
+      </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" t="s">
         <v>10</v>
       </c>
-      <c r="C30">
-        <v>327946</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31">
+        <v>6779888</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="C31">
-        <v>6779888</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>59</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32">
+        <v>1685920</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" t="s">
         <v>0</v>
       </c>
-      <c r="C32">
-        <v>1685920</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33">
+        <v>1511251</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" t="s">
         <v>35</v>
       </c>
-      <c r="C33">
-        <v>1511251</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34">
+        <v>661197</v>
+      </c>
+      <c r="C34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="C34">
-        <v>661197</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35">
+        <v>306650</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" t="s">
         <v>38</v>
       </c>
-      <c r="C35">
-        <v>306650</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>58</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36">
+        <v>160321</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" t="s">
         <v>39</v>
       </c>
-      <c r="C36">
-        <v>160321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37">
+        <v>1131065</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" t="s">
         <v>0</v>
       </c>
-      <c r="C37">
-        <v>1131065</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38">
+        <v>945408</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" t="s">
         <v>10</v>
       </c>
-      <c r="C38">
-        <v>945408</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>54</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
+        <v>319914</v>
+      </c>
+      <c r="C39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" t="s">
         <v>0</v>
       </c>
-      <c r="C39">
-        <v>319914</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40">
+        <v>329245</v>
+      </c>
+      <c r="C40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" t="s">
         <v>10</v>
       </c>
-      <c r="C40">
-        <v>329245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41">
+        <v>1044887</v>
+      </c>
+      <c r="C41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" t="s">
         <v>32</v>
       </c>
-      <c r="C41">
-        <v>1044887</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42">
+        <v>153478</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" t="s">
         <v>10</v>
       </c>
-      <c r="C42">
-        <v>153478</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43">
+        <v>1950219</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="C43">
-        <v>1950219</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44">
+        <v>88884</v>
+      </c>
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" t="s">
         <v>10</v>
       </c>
-      <c r="C44">
-        <v>88884</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>55</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45">
+        <v>816772</v>
+      </c>
+      <c r="C45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" t="s">
         <v>14</v>
       </c>
-      <c r="C45">
-        <v>816772</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46">
+        <v>134176</v>
+      </c>
+      <c r="C46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" t="s">
         <v>27</v>
       </c>
-      <c r="C46">
-        <v>134176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47">
+        <v>703772</v>
+      </c>
+      <c r="C47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" t="s">
         <v>3</v>
       </c>
-      <c r="C47">
-        <v>703772</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>56</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48">
+        <v>2591875</v>
+      </c>
+      <c r="C48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" t="s">
         <v>4</v>
       </c>
-      <c r="C48">
-        <v>2591875</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49">
+        <v>520649</v>
+      </c>
+      <c r="C49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" t="s">
         <v>10</v>
       </c>
-      <c r="C49">
-        <v>520649</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50">
+        <v>170588</v>
+      </c>
+      <c r="C50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" t="s">
         <v>10</v>
       </c>
-      <c r="C50">
-        <v>170588</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51">
+        <v>972528</v>
+      </c>
+      <c r="C51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" t="s">
         <v>27</v>
       </c>
-      <c r="C51">
-        <v>972528</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>67</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52">
+        <v>84202</v>
+      </c>
+      <c r="C52" t="s">
         <v>69</v>
       </c>
-      <c r="C52">
-        <v>84202</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>68</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53">
+        <v>87076</v>
+      </c>
+      <c r="C53" t="s">
         <v>70</v>
       </c>
-      <c r="C53">
-        <v>87076</v>
+      <c r="D53" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" display="https://es.wikipedia.org/wiki/Galicia" xr:uid="{AB982134-E132-4ED2-B000-BF228F10CB3A}"/>
-    <hyperlink ref="B5" r:id="rId2" tooltip="País Vasco" display="https://es.wikipedia.org/wiki/Pa%C3%ADs_Vasco" xr:uid="{2DE14370-09A1-4DAF-804D-4130AB8FCEFF}"/>
-    <hyperlink ref="A2" r:id="rId3" tooltip="Provincia de Albacete" display="https://es.wikipedia.org/wiki/Provincia_de_Albacete" xr:uid="{EC296D06-C218-49CA-8B3C-DB9F10F58597}"/>
-    <hyperlink ref="B2" r:id="rId4" tooltip="Castilla-La Mancha" display="https://es.wikipedia.org/wiki/Castilla-La_Mancha" xr:uid="{0DFF1C4B-0238-4E41-8063-AD127123B9EA}"/>
-    <hyperlink ref="B3" r:id="rId5" tooltip="Comunidad Valenciana" display="https://es.wikipedia.org/wiki/Comunidad_Valenciana" xr:uid="{A85D0123-EB68-4EE9-A687-4C908B91E3E6}"/>
-    <hyperlink ref="A4" r:id="rId6" tooltip="Provincia de Almería" display="https://es.wikipedia.org/wiki/Provincia_de_Almer%C3%ADa" xr:uid="{7DE989BC-AC54-42DC-B6A7-21561340E167}"/>
-    <hyperlink ref="B4" r:id="rId7" tooltip="Andalucía" display="https://es.wikipedia.org/wiki/Andaluc%C3%ADa" xr:uid="{A3771DB4-C576-434A-A9C1-16A5AAF108DD}"/>
-    <hyperlink ref="A6" r:id="rId8" tooltip="Asturias" display="https://es.wikipedia.org/wiki/Asturias" xr:uid="{DF2339D9-61E6-4B95-8D63-3B6F61ACC547}"/>
-    <hyperlink ref="B6" r:id="rId9" tooltip="Asturias" display="https://es.wikipedia.org/wiki/Asturias" xr:uid="{2DE1FB09-3D74-4823-866E-0FB38EE36161}"/>
-    <hyperlink ref="A7" r:id="rId10" tooltip="Provincia de Ávila" display="https://es.wikipedia.org/wiki/Provincia_de_%C3%81vila" xr:uid="{F53C21A5-2E9D-41BC-BC5F-929ACBEE4673}"/>
-    <hyperlink ref="B7" r:id="rId11" tooltip="Castilla y León" display="https://es.wikipedia.org/wiki/Castilla_y_Le%C3%B3n" xr:uid="{229CC8F3-E119-4937-BF13-071640C099AD}"/>
-    <hyperlink ref="A8" r:id="rId12" tooltip="Provincia de Badajoz" display="https://es.wikipedia.org/wiki/Provincia_de_Badajoz" xr:uid="{D28F972F-D5E3-48C9-B1D4-A3FC6F4D1F18}"/>
-    <hyperlink ref="B8" r:id="rId13" tooltip="Extremadura" display="https://es.wikipedia.org/wiki/Extremadura" xr:uid="{22604CF6-134A-4815-8A10-432800E2F669}"/>
-    <hyperlink ref="B9" r:id="rId14" tooltip="Islas Baleares" display="https://es.wikipedia.org/wiki/Islas_Baleares" xr:uid="{2FBF42C7-5C46-43A5-B0AE-815B1B3E768F}"/>
-    <hyperlink ref="B10" r:id="rId15" tooltip="Cataluña" display="https://es.wikipedia.org/wiki/Catalu%C3%B1a" xr:uid="{3760DEC7-32B7-4084-B04D-1F09AA7172F9}"/>
-    <hyperlink ref="B11" r:id="rId16" tooltip="País Vasco" display="https://es.wikipedia.org/wiki/Pa%C3%ADs_Vasco" xr:uid="{17D96231-D03A-4F26-BB63-C4259380303A}"/>
-    <hyperlink ref="A12" r:id="rId17" tooltip="Provincia de Burgos" display="https://es.wikipedia.org/wiki/Provincia_de_Burgos" xr:uid="{7CF30160-BACD-42DD-92B3-7708B8009BFF}"/>
-    <hyperlink ref="B12" r:id="rId18" tooltip="Castilla y León" display="https://es.wikipedia.org/wiki/Castilla_y_Le%C3%B3n" xr:uid="{07BEF854-F7E7-4945-A342-6678AC5AA078}"/>
-    <hyperlink ref="A13" r:id="rId19" tooltip="Provincia de Cáceres" display="https://es.wikipedia.org/wiki/Provincia_de_C%C3%A1ceres" xr:uid="{6B95D51F-2DA3-4891-849F-68B0BD095DC4}"/>
-    <hyperlink ref="B13" r:id="rId20" tooltip="Extremadura" display="https://es.wikipedia.org/wiki/Extremadura" xr:uid="{7438D426-0A6B-4A12-B503-6AA6770CD028}"/>
-    <hyperlink ref="A14" r:id="rId21" tooltip="Provincia de Cádiz" display="https://es.wikipedia.org/wiki/Provincia_de_C%C3%A1diz" xr:uid="{1661AA40-AFFD-419A-8082-88CCEA1276F0}"/>
-    <hyperlink ref="B14" r:id="rId22" tooltip="Andalucía" display="https://es.wikipedia.org/wiki/Andaluc%C3%ADa" xr:uid="{8B0E94AE-7CDF-48DE-B56E-29635CB8F5BC}"/>
-    <hyperlink ref="A15" r:id="rId23" tooltip="Cantabria" display="https://es.wikipedia.org/wiki/Cantabria" xr:uid="{03712C7A-3EF4-4377-8976-1DED9AAF2371}"/>
-    <hyperlink ref="B15" r:id="rId24" tooltip="Cantabria" display="https://es.wikipedia.org/wiki/Cantabria" xr:uid="{DEFCBAE2-89BF-4448-A211-753D9C8E6DC7}"/>
-    <hyperlink ref="B16" r:id="rId25" tooltip="Comunidad Valenciana" display="https://es.wikipedia.org/wiki/Comunidad_Valenciana" xr:uid="{3CC6A63B-CA15-42D3-904F-331ABA35FACA}"/>
-    <hyperlink ref="A17" r:id="rId26" tooltip="Provincia de Ciudad Real" display="https://es.wikipedia.org/wiki/Provincia_de_Ciudad_Real" xr:uid="{B2811797-0F71-46C5-8839-D3542A27A714}"/>
-    <hyperlink ref="B17" r:id="rId27" tooltip="Castilla-La Mancha" display="https://es.wikipedia.org/wiki/Castilla-La_Mancha" xr:uid="{2C9024BB-D727-4F70-A26E-1C5A8011E718}"/>
-    <hyperlink ref="A18" r:id="rId28" tooltip="Provincia de Córdoba (España)" display="https://es.wikipedia.org/wiki/Provincia_de_C%C3%B3rdoba_(Espa%C3%B1a)" xr:uid="{FDA5E6E9-C9CA-4CDE-9836-009E7477DA52}"/>
-    <hyperlink ref="B18" r:id="rId29" tooltip="Andalucía" display="https://es.wikipedia.org/wiki/Andaluc%C3%ADa" xr:uid="{A315F071-46B5-4F95-9F62-586F2E82AFD4}"/>
-    <hyperlink ref="A20" r:id="rId30" tooltip="Provincia de Cuenca" display="https://es.wikipedia.org/wiki/Provincia_de_Cuenca" xr:uid="{F0904825-865B-43A8-8FAC-BA7322086C62}"/>
-    <hyperlink ref="B20" r:id="rId31" tooltip="Castilla-La Mancha" display="https://es.wikipedia.org/wiki/Castilla-La_Mancha" xr:uid="{14911175-8364-4D4B-B67E-8308CC276CA9}"/>
-    <hyperlink ref="B21" r:id="rId32" tooltip="País Vasco" display="https://es.wikipedia.org/wiki/Pa%C3%ADs_Vasco" xr:uid="{494906E4-234C-48F3-A135-A3A41CC0200C}"/>
-    <hyperlink ref="B22" r:id="rId33" tooltip="Cataluña" display="https://es.wikipedia.org/wiki/Catalu%C3%B1a" xr:uid="{68BFC47F-574F-4B61-844B-392FBDC10A03}"/>
-    <hyperlink ref="A23" r:id="rId34" tooltip="Provincia de Granada" display="https://es.wikipedia.org/wiki/Provincia_de_Granada" xr:uid="{9B055B43-DF6D-4F75-BED8-1A4461ECAB5D}"/>
-    <hyperlink ref="B23" r:id="rId35" tooltip="Andalucía" display="https://es.wikipedia.org/wiki/Andaluc%C3%ADa" xr:uid="{C325C6F9-ADB9-45B0-A28F-74969837DC10}"/>
-    <hyperlink ref="A24" r:id="rId36" tooltip="Provincia de Guadalajara" display="https://es.wikipedia.org/wiki/Provincia_de_Guadalajara" xr:uid="{7539A5E7-210A-46BB-9E75-7F8C99FCE9A0}"/>
-    <hyperlink ref="B24" r:id="rId37" tooltip="Castilla-La Mancha" display="https://es.wikipedia.org/wiki/Castilla-La_Mancha" xr:uid="{2945B0F1-FF99-4EFF-B3AB-91B0877720C4}"/>
-    <hyperlink ref="A25" r:id="rId38" tooltip="Provincia de Huelva" display="https://es.wikipedia.org/wiki/Provincia_de_Huelva" xr:uid="{68B9486E-2F17-436E-AE48-48CB41B944FB}"/>
-    <hyperlink ref="B25" r:id="rId39" tooltip="Andalucía" display="https://es.wikipedia.org/wiki/Andaluc%C3%ADa" xr:uid="{7A243058-71DF-413A-B283-2F0DF510B81A}"/>
-    <hyperlink ref="A26" r:id="rId40" tooltip="Provincia de Huesca" display="https://es.wikipedia.org/wiki/Provincia_de_Huesca" xr:uid="{48522B90-E450-474A-9994-68822C7D4C36}"/>
-    <hyperlink ref="B26" r:id="rId41" tooltip="Aragón" display="https://es.wikipedia.org/wiki/Arag%C3%B3n" xr:uid="{1072E7FE-213F-4F80-8859-0CFAC355FE57}"/>
-    <hyperlink ref="A27" r:id="rId42" tooltip="Provincia de Jaén (España)" display="https://es.wikipedia.org/wiki/Provincia_de_Ja%C3%A9n_(Espa%C3%B1a)" xr:uid="{31D06369-8D1F-45FA-95CB-0434EA0B97E7}"/>
-    <hyperlink ref="B27" r:id="rId43" tooltip="Andalucía" display="https://es.wikipedia.org/wiki/Andaluc%C3%ADa" xr:uid="{ED775BC6-D9EB-4198-913B-03F0105F21EE}"/>
-    <hyperlink ref="A28" r:id="rId44" tooltip="La Rioja (España)" display="https://es.wikipedia.org/wiki/La_Rioja_(Espa%C3%B1a)" xr:uid="{BFF11CE3-FCB5-42FB-B69C-B66ACBEA2724}"/>
-    <hyperlink ref="B28" r:id="rId45" tooltip="La Rioja (España)" display="https://es.wikipedia.org/wiki/La_Rioja_(Espa%C3%B1a)" xr:uid="{17AEFC91-E341-4AA8-841D-17257066E7D6}"/>
-    <hyperlink ref="A29" r:id="rId46" tooltip="Provincia de Las Palmas" display="https://es.wikipedia.org/wiki/Provincia_de_Las_Palmas" xr:uid="{1DFA8725-BD8D-4992-AC05-396C0B724249}"/>
-    <hyperlink ref="B29" r:id="rId47" tooltip="Canarias" display="https://es.wikipedia.org/wiki/Canarias" xr:uid="{2110901D-5D3C-4F53-BFCD-D28A00539812}"/>
-    <hyperlink ref="A30" r:id="rId48" tooltip="Provincia de León" display="https://es.wikipedia.org/wiki/Provincia_de_Le%C3%B3n" xr:uid="{E1BF49DF-31D9-4BD1-B2D7-335950E3087C}"/>
-    <hyperlink ref="B30" r:id="rId49" tooltip="Castilla y León" display="https://es.wikipedia.org/wiki/Castilla_y_Le%C3%B3n" xr:uid="{F1AFE11A-A99A-4BBB-B27B-1D3107C44311}"/>
-    <hyperlink ref="B31" r:id="rId50" tooltip="Cataluña" display="https://es.wikipedia.org/wiki/Catalu%C3%B1a" xr:uid="{5FBD6009-0037-4B73-B1D2-20A187BDD98C}"/>
-    <hyperlink ref="B32" r:id="rId51" tooltip="Galicia" display="https://es.wikipedia.org/wiki/Galicia" xr:uid="{F6DF2A8C-3AD7-49C8-8263-CF204B4ECE1F}"/>
-    <hyperlink ref="A33" r:id="rId52" tooltip="Comunidad de Madrid" display="https://es.wikipedia.org/wiki/Comunidad_de_Madrid" xr:uid="{9878FD35-81CA-4992-A570-6D00D94972CB}"/>
-    <hyperlink ref="B33" r:id="rId53" tooltip="Comunidad de Madrid" display="https://es.wikipedia.org/wiki/Comunidad_de_Madrid" xr:uid="{F9E597FF-6543-4AC1-9238-52E8E54B42E0}"/>
-    <hyperlink ref="A34" r:id="rId54" tooltip="Provincia de Málaga" display="https://es.wikipedia.org/wiki/Provincia_de_M%C3%A1laga" xr:uid="{981449CA-5B30-4FAC-8986-BAA563FB1568}"/>
-    <hyperlink ref="B34" r:id="rId55" tooltip="Andalucía" display="https://es.wikipedia.org/wiki/Andaluc%C3%ADa" xr:uid="{9AF14E5B-D451-4DCA-94A8-16A07CDD1103}"/>
-    <hyperlink ref="A35" r:id="rId56" tooltip="Región de Murcia" display="https://es.wikipedia.org/wiki/Regi%C3%B3n_de_Murcia" xr:uid="{F9BCC96A-60DF-4081-837C-637A9FA77F73}"/>
-    <hyperlink ref="B35" r:id="rId57" tooltip="Región de Murcia" display="https://es.wikipedia.org/wiki/Regi%C3%B3n_de_Murcia" xr:uid="{BEB6CCED-C919-40BB-AA89-8F722990575C}"/>
-    <hyperlink ref="B36" r:id="rId58" tooltip="Navarra" display="https://es.wikipedia.org/wiki/Navarra" xr:uid="{8B9D4483-18B6-4AD0-A33D-C77D06B5C120}"/>
-    <hyperlink ref="B37" r:id="rId59" tooltip="Galicia" display="https://es.wikipedia.org/wiki/Galicia" xr:uid="{56175C7F-A015-4FC0-9BD2-633C84CDFB12}"/>
-    <hyperlink ref="A38" r:id="rId60" tooltip="Provincia de Palencia" display="https://es.wikipedia.org/wiki/Provincia_de_Palencia" xr:uid="{7ED53AE1-5CE7-4530-9202-EC5D5709738E}"/>
-    <hyperlink ref="B38" r:id="rId61" tooltip="Castilla y León" display="https://es.wikipedia.org/wiki/Castilla_y_Le%C3%B3n" xr:uid="{A05C42CE-4AFF-40EC-9F13-3FCE92EDA1AF}"/>
-    <hyperlink ref="B39" r:id="rId62" display="https://es.wikipedia.org/wiki/Galicia" xr:uid="{B2213F0C-54F2-4227-9C75-3A857442DB5B}"/>
-    <hyperlink ref="A40" r:id="rId63" tooltip="Provincia de Salamanca" display="https://es.wikipedia.org/wiki/Provincia_de_Salamanca" xr:uid="{A18DE4D6-C990-42B9-B867-FAF7ACA621EC}"/>
-    <hyperlink ref="B40" r:id="rId64" tooltip="Castilla y León" display="https://es.wikipedia.org/wiki/Castilla_y_Le%C3%B3n" xr:uid="{01915CE4-C756-41C0-9564-3D0B931A904E}"/>
-    <hyperlink ref="A41" r:id="rId65" tooltip="Provincia de Santa Cruz de Tenerife" display="https://es.wikipedia.org/wiki/Provincia_de_Santa_Cruz_de_Tenerife" xr:uid="{B0B1ED48-AB89-43B9-BB1A-7D1E9E7EFD5C}"/>
-    <hyperlink ref="B41" r:id="rId66" tooltip="Galicia" display="https://es.wikipedia.org/wiki/Canarias" xr:uid="{EC6BA253-A644-4377-B03A-B81FDA8DE033}"/>
-    <hyperlink ref="A42" r:id="rId67" tooltip="Provincia de Segovia" display="https://es.wikipedia.org/wiki/Provincia_de_Segovia" xr:uid="{4C8461E7-9C30-4889-B9DB-797A8715978C}"/>
-    <hyperlink ref="B42" r:id="rId68" tooltip="Castilla y León" display="https://es.wikipedia.org/wiki/Castilla_y_Le%C3%B3n" xr:uid="{D869EC2A-BDAC-4FFF-B91B-CC050D794D11}"/>
-    <hyperlink ref="A43" r:id="rId69" tooltip="Provincia de Sevilla" display="https://es.wikipedia.org/wiki/Provincia_de_Sevilla" xr:uid="{81CADABC-DA1A-479D-B942-60AE3A5278A9}"/>
-    <hyperlink ref="B43" r:id="rId70" tooltip="Andalucía" display="https://es.wikipedia.org/wiki/Andaluc%C3%ADa" xr:uid="{ADFBCB28-603D-4FF9-B7A1-9411D7214CF1}"/>
-    <hyperlink ref="A44" r:id="rId71" tooltip="Provincia de Soria" display="https://es.wikipedia.org/wiki/Provincia_de_Soria" xr:uid="{4D1283AE-B38D-4DF9-9F49-D4694C3D8F84}"/>
-    <hyperlink ref="B44" r:id="rId72" tooltip="Castilla y León" display="https://es.wikipedia.org/wiki/Castilla_y_Le%C3%B3n" xr:uid="{1856E708-6762-4F3C-805C-3709BBDE7869}"/>
-    <hyperlink ref="B45" r:id="rId73" tooltip="Cataluña" display="https://es.wikipedia.org/wiki/Catalu%C3%B1a" xr:uid="{A160B58D-B470-4ACB-9E5E-E41DFC9F6489}"/>
-    <hyperlink ref="A46" r:id="rId74" tooltip="Provincia de Teruel" display="https://es.wikipedia.org/wiki/Provincia_de_Teruel" xr:uid="{72179377-CD92-449A-979F-26025301035C}"/>
-    <hyperlink ref="B46" r:id="rId75" tooltip="Aragón" display="https://es.wikipedia.org/wiki/Arag%C3%B3n" xr:uid="{22D17705-915C-44E8-AD29-7DDCBCC2D285}"/>
-    <hyperlink ref="A47" r:id="rId76" tooltip="Provincia de Toledo" display="https://es.wikipedia.org/wiki/Provincia_de_Toledo" xr:uid="{F48A050C-A3FA-4DA8-A798-B187A80083EB}"/>
-    <hyperlink ref="B47" r:id="rId77" tooltip="Castilla-La Mancha" display="https://es.wikipedia.org/wiki/Castilla-La_Mancha" xr:uid="{C9546381-57E4-4194-937C-CEB413F80BED}"/>
-    <hyperlink ref="B48" r:id="rId78" tooltip="Comunidad Valenciana" display="https://es.wikipedia.org/wiki/Comunidad_Valenciana" xr:uid="{1ACC1370-9601-480E-A2AA-B47C3437EFAE}"/>
-    <hyperlink ref="A49" r:id="rId79" tooltip="Provincia de Valladolid" display="https://es.wikipedia.org/wiki/Provincia_de_Valladolid" xr:uid="{D34F3F14-DBD5-4A27-9E23-4E32CC438B7A}"/>
-    <hyperlink ref="B49" r:id="rId80" tooltip="Castilla y León" display="https://es.wikipedia.org/wiki/Castilla_y_Le%C3%B3n" xr:uid="{4CA26978-C92C-4FB1-AEBA-7DEB05860D82}"/>
-    <hyperlink ref="A50" r:id="rId81" tooltip="Provincia de Zamora" display="https://es.wikipedia.org/wiki/Provincia_de_Zamora" xr:uid="{DD0A063A-3737-47CE-8ED3-0434A2578D61}"/>
-    <hyperlink ref="B50" r:id="rId82" tooltip="Castilla y León" display="https://es.wikipedia.org/wiki/Castilla_y_Le%C3%B3n" xr:uid="{EFB3D795-E2B5-45FB-A164-75FE7DBB6134}"/>
-    <hyperlink ref="A51" r:id="rId83" tooltip="Provincia de Zaragoza" display="https://es.wikipedia.org/wiki/Provincia_de_Zaragoza" xr:uid="{6242FBAD-9A8E-40B3-818C-E42B20059905}"/>
-    <hyperlink ref="B51" r:id="rId84" tooltip="Aragón" display="https://es.wikipedia.org/wiki/Arag%C3%B3n" xr:uid="{7B4C2CE6-A81E-441A-99D9-3F4AEC28D814}"/>
-    <hyperlink ref="A52" r:id="rId85" tooltip="Ceuta" display="https://es.wikipedia.org/wiki/Ceuta" xr:uid="{955029A8-2720-416B-83BC-49E28962F6AE}"/>
-    <hyperlink ref="A53" r:id="rId86" tooltip="Melilla" display="https://es.wikipedia.org/wiki/Melilla" xr:uid="{AA864809-8708-467A-81F0-6647CAA3D1E0}"/>
+    <hyperlink ref="A2" r:id="rId1" tooltip="Provincia de Albacete" display="https://es.wikipedia.org/wiki/Provincia_de_Albacete" xr:uid="{EC296D06-C218-49CA-8B3C-DB9F10F58597}"/>
+    <hyperlink ref="A4" r:id="rId2" tooltip="Provincia de Almería" display="https://es.wikipedia.org/wiki/Provincia_de_Almer%C3%ADa" xr:uid="{7DE989BC-AC54-42DC-B6A7-21561340E167}"/>
+    <hyperlink ref="A6" r:id="rId3" tooltip="Asturias" display="https://es.wikipedia.org/wiki/Asturias" xr:uid="{DF2339D9-61E6-4B95-8D63-3B6F61ACC547}"/>
+    <hyperlink ref="A7" r:id="rId4" tooltip="Provincia de Ávila" display="https://es.wikipedia.org/wiki/Provincia_de_%C3%81vila" xr:uid="{F53C21A5-2E9D-41BC-BC5F-929ACBEE4673}"/>
+    <hyperlink ref="A8" r:id="rId5" tooltip="Provincia de Badajoz" display="https://es.wikipedia.org/wiki/Provincia_de_Badajoz" xr:uid="{D28F972F-D5E3-48C9-B1D4-A3FC6F4D1F18}"/>
+    <hyperlink ref="A12" r:id="rId6" tooltip="Provincia de Burgos" display="https://es.wikipedia.org/wiki/Provincia_de_Burgos" xr:uid="{7CF30160-BACD-42DD-92B3-7708B8009BFF}"/>
+    <hyperlink ref="A13" r:id="rId7" tooltip="Provincia de Cáceres" display="https://es.wikipedia.org/wiki/Provincia_de_C%C3%A1ceres" xr:uid="{6B95D51F-2DA3-4891-849F-68B0BD095DC4}"/>
+    <hyperlink ref="A14" r:id="rId8" tooltip="Provincia de Cádiz" display="https://es.wikipedia.org/wiki/Provincia_de_C%C3%A1diz" xr:uid="{1661AA40-AFFD-419A-8082-88CCEA1276F0}"/>
+    <hyperlink ref="A15" r:id="rId9" tooltip="Cantabria" display="https://es.wikipedia.org/wiki/Cantabria" xr:uid="{03712C7A-3EF4-4377-8976-1DED9AAF2371}"/>
+    <hyperlink ref="A17" r:id="rId10" tooltip="Provincia de Ciudad Real" display="https://es.wikipedia.org/wiki/Provincia_de_Ciudad_Real" xr:uid="{B2811797-0F71-46C5-8839-D3542A27A714}"/>
+    <hyperlink ref="A18" r:id="rId11" tooltip="Provincia de Córdoba (España)" display="https://es.wikipedia.org/wiki/Provincia_de_C%C3%B3rdoba_(Espa%C3%B1a)" xr:uid="{FDA5E6E9-C9CA-4CDE-9836-009E7477DA52}"/>
+    <hyperlink ref="A20" r:id="rId12" tooltip="Provincia de Cuenca" display="https://es.wikipedia.org/wiki/Provincia_de_Cuenca" xr:uid="{F0904825-865B-43A8-8FAC-BA7322086C62}"/>
+    <hyperlink ref="A23" r:id="rId13" tooltip="Provincia de Granada" display="https://es.wikipedia.org/wiki/Provincia_de_Granada" xr:uid="{9B055B43-DF6D-4F75-BED8-1A4461ECAB5D}"/>
+    <hyperlink ref="A24" r:id="rId14" tooltip="Provincia de Guadalajara" display="https://es.wikipedia.org/wiki/Provincia_de_Guadalajara" xr:uid="{7539A5E7-210A-46BB-9E75-7F8C99FCE9A0}"/>
+    <hyperlink ref="A25" r:id="rId15" tooltip="Provincia de Huelva" display="https://es.wikipedia.org/wiki/Provincia_de_Huelva" xr:uid="{68B9486E-2F17-436E-AE48-48CB41B944FB}"/>
+    <hyperlink ref="A26" r:id="rId16" tooltip="Provincia de Huesca" display="https://es.wikipedia.org/wiki/Provincia_de_Huesca" xr:uid="{48522B90-E450-474A-9994-68822C7D4C36}"/>
+    <hyperlink ref="A27" r:id="rId17" tooltip="Provincia de Jaén (España)" display="https://es.wikipedia.org/wiki/Provincia_de_Ja%C3%A9n_(Espa%C3%B1a)" xr:uid="{31D06369-8D1F-45FA-95CB-0434EA0B97E7}"/>
+    <hyperlink ref="A28" r:id="rId18" tooltip="La Rioja (España)" display="https://es.wikipedia.org/wiki/La_Rioja_(Espa%C3%B1a)" xr:uid="{BFF11CE3-FCB5-42FB-B69C-B66ACBEA2724}"/>
+    <hyperlink ref="A29" r:id="rId19" tooltip="Provincia de Las Palmas" display="https://es.wikipedia.org/wiki/Provincia_de_Las_Palmas" xr:uid="{1DFA8725-BD8D-4992-AC05-396C0B724249}"/>
+    <hyperlink ref="A30" r:id="rId20" tooltip="Provincia de León" display="https://es.wikipedia.org/wiki/Provincia_de_Le%C3%B3n" xr:uid="{E1BF49DF-31D9-4BD1-B2D7-335950E3087C}"/>
+    <hyperlink ref="A33" r:id="rId21" tooltip="Comunidad de Madrid" display="https://es.wikipedia.org/wiki/Comunidad_de_Madrid" xr:uid="{9878FD35-81CA-4992-A570-6D00D94972CB}"/>
+    <hyperlink ref="A34" r:id="rId22" tooltip="Provincia de Málaga" display="https://es.wikipedia.org/wiki/Provincia_de_M%C3%A1laga" xr:uid="{981449CA-5B30-4FAC-8986-BAA563FB1568}"/>
+    <hyperlink ref="A35" r:id="rId23" tooltip="Región de Murcia" display="https://es.wikipedia.org/wiki/Regi%C3%B3n_de_Murcia" xr:uid="{F9BCC96A-60DF-4081-837C-637A9FA77F73}"/>
+    <hyperlink ref="A38" r:id="rId24" tooltip="Provincia de Palencia" display="https://es.wikipedia.org/wiki/Provincia_de_Palencia" xr:uid="{7ED53AE1-5CE7-4530-9202-EC5D5709738E}"/>
+    <hyperlink ref="A40" r:id="rId25" tooltip="Provincia de Salamanca" display="https://es.wikipedia.org/wiki/Provincia_de_Salamanca" xr:uid="{A18DE4D6-C990-42B9-B867-FAF7ACA621EC}"/>
+    <hyperlink ref="A41" r:id="rId26" tooltip="Provincia de Santa Cruz de Tenerife" display="https://es.wikipedia.org/wiki/Provincia_de_Santa_Cruz_de_Tenerife" xr:uid="{B0B1ED48-AB89-43B9-BB1A-7D1E9E7EFD5C}"/>
+    <hyperlink ref="A42" r:id="rId27" tooltip="Provincia de Segovia" display="https://es.wikipedia.org/wiki/Provincia_de_Segovia" xr:uid="{4C8461E7-9C30-4889-B9DB-797A8715978C}"/>
+    <hyperlink ref="A43" r:id="rId28" tooltip="Provincia de Sevilla" display="https://es.wikipedia.org/wiki/Provincia_de_Sevilla" xr:uid="{81CADABC-DA1A-479D-B942-60AE3A5278A9}"/>
+    <hyperlink ref="A44" r:id="rId29" tooltip="Provincia de Soria" display="https://es.wikipedia.org/wiki/Provincia_de_Soria" xr:uid="{4D1283AE-B38D-4DF9-9F49-D4694C3D8F84}"/>
+    <hyperlink ref="A46" r:id="rId30" tooltip="Provincia de Teruel" display="https://es.wikipedia.org/wiki/Provincia_de_Teruel" xr:uid="{72179377-CD92-449A-979F-26025301035C}"/>
+    <hyperlink ref="A47" r:id="rId31" tooltip="Provincia de Toledo" display="https://es.wikipedia.org/wiki/Provincia_de_Toledo" xr:uid="{F48A050C-A3FA-4DA8-A798-B187A80083EB}"/>
+    <hyperlink ref="A49" r:id="rId32" tooltip="Provincia de Valladolid" display="https://es.wikipedia.org/wiki/Provincia_de_Valladolid" xr:uid="{D34F3F14-DBD5-4A27-9E23-4E32CC438B7A}"/>
+    <hyperlink ref="A50" r:id="rId33" tooltip="Provincia de Zamora" display="https://es.wikipedia.org/wiki/Provincia_de_Zamora" xr:uid="{DD0A063A-3737-47CE-8ED3-0434A2578D61}"/>
+    <hyperlink ref="A51" r:id="rId34" tooltip="Provincia de Zaragoza" display="https://es.wikipedia.org/wiki/Provincia_de_Zaragoza" xr:uid="{6242FBAD-9A8E-40B3-818C-E42B20059905}"/>
+    <hyperlink ref="A52" r:id="rId35" tooltip="Ceuta" display="https://es.wikipedia.org/wiki/Ceuta" xr:uid="{955029A8-2720-416B-83BC-49E28962F6AE}"/>
+    <hyperlink ref="A53" r:id="rId36" tooltip="Melilla" display="https://es.wikipedia.org/wiki/Melilla" xr:uid="{AA864809-8708-467A-81F0-6647CAA3D1E0}"/>
+    <hyperlink ref="C4" r:id="rId37" location="cite_note-capital-4" display="cite_note-capital-4" xr:uid="{1D766DDC-F9C5-42B1-9E66-F0CB9A3B08C3}"/>
+    <hyperlink ref="C6" r:id="rId38" location="cite_note-capital-4" display="https://es.wikipedia.org/wiki/ISO_3166-2:ES - cite_note-capital-4" xr:uid="{CED92762-B030-4860-9425-BD8936E2F194}"/>
+    <hyperlink ref="C9" r:id="rId39" location="cite_note-capital-4" display="https://es.wikipedia.org/wiki/ISO_3166-2:ES - cite_note-capital-4" xr:uid="{D096E609-09E8-4BC6-8783-2CD6DB340A50}"/>
+    <hyperlink ref="C11" r:id="rId40" location="cite_note-capital-4" display="cite_note-capital-4" xr:uid="{1C149D4A-126A-43BB-9823-E2A5858EFC18}"/>
+    <hyperlink ref="C15" r:id="rId41" location="cite_note-capital-4" display="cite_note-capital-4" xr:uid="{31D0DB8E-65AC-4E43-A334-2B533CD231A6}"/>
+    <hyperlink ref="C21" r:id="rId42" location="cite_note-capital-4" display="cite_note-capital-4" xr:uid="{9A851515-BE2F-45DF-9497-A7F975874EE6}"/>
+    <hyperlink ref="C28" r:id="rId43" location="cite_note-capital-4" display="cite_note-capital-4" xr:uid="{35CA97D9-28B2-407B-B791-8BBB6D756759}"/>
+    <hyperlink ref="C29" r:id="rId44" location="cite_note-capital-4" display="https://es.wikipedia.org/wiki/ISO_3166-2:ES - cite_note-capital-4" xr:uid="{F06B4F42-CE42-4B60-B7D2-EDCDCC5FE435}"/>
+    <hyperlink ref="D51" r:id="rId45" tooltip="Aragón" display="https://es.wikipedia.org/wiki/Arag%C3%B3n" xr:uid="{458243B2-FB05-458F-9ABF-D5E49E41FBBD}"/>
+    <hyperlink ref="D50" r:id="rId46" tooltip="Castilla y León" display="https://es.wikipedia.org/wiki/Castilla_y_Le%C3%B3n" xr:uid="{6910959A-4948-4662-8A2F-F2C50CF38A9A}"/>
+    <hyperlink ref="D49" r:id="rId47" tooltip="Castilla y León" display="https://es.wikipedia.org/wiki/Castilla_y_Le%C3%B3n" xr:uid="{5FFB59F6-22BA-40E7-B4E8-A42E8D5F6D2B}"/>
+    <hyperlink ref="D48" r:id="rId48" tooltip="Comunidad Valenciana" display="https://es.wikipedia.org/wiki/Comunidad_Valenciana" xr:uid="{28244435-7484-4B3F-BC56-FF0AF60D86BC}"/>
+    <hyperlink ref="D47" r:id="rId49" tooltip="Castilla-La Mancha" display="https://es.wikipedia.org/wiki/Castilla-La_Mancha" xr:uid="{0B3FB086-C8FA-4379-BB82-84D3E9CA6BCD}"/>
+    <hyperlink ref="D46" r:id="rId50" tooltip="Aragón" display="https://es.wikipedia.org/wiki/Arag%C3%B3n" xr:uid="{1B047EA1-F52A-49D3-9118-3D26B5699FC9}"/>
+    <hyperlink ref="D45" r:id="rId51" tooltip="Cataluña" display="https://es.wikipedia.org/wiki/Catalu%C3%B1a" xr:uid="{35073B9E-F145-4FBE-9983-3972D56A4747}"/>
+    <hyperlink ref="D44" r:id="rId52" tooltip="Castilla y León" display="https://es.wikipedia.org/wiki/Castilla_y_Le%C3%B3n" xr:uid="{2EC24690-C07E-45F9-AAE1-8ED08EBA70EC}"/>
+    <hyperlink ref="D43" r:id="rId53" tooltip="Andalucía" display="https://es.wikipedia.org/wiki/Andaluc%C3%ADa" xr:uid="{E3D01502-388A-4A95-B905-AA64218E0650}"/>
+    <hyperlink ref="D42" r:id="rId54" tooltip="Castilla y León" display="https://es.wikipedia.org/wiki/Castilla_y_Le%C3%B3n" xr:uid="{01286CE7-232F-48EC-B9A1-0F4FDD92B930}"/>
+    <hyperlink ref="D41" r:id="rId55" tooltip="Canarias" display="https://es.wikipedia.org/wiki/Canarias" xr:uid="{15DC076B-EF44-462C-8391-867D5A4A5C8A}"/>
+    <hyperlink ref="D40" r:id="rId56" tooltip="Castilla y León" display="https://es.wikipedia.org/wiki/Castilla_y_Le%C3%B3n" xr:uid="{F2CE174D-626A-4FDA-80DE-DB9DA5366254}"/>
+    <hyperlink ref="D39" r:id="rId57" tooltip="Galicia" display="https://es.wikipedia.org/wiki/Galicia" xr:uid="{2A106C5A-006E-445E-9794-725010E4C54D}"/>
+    <hyperlink ref="D38" r:id="rId58" tooltip="Castilla y León" display="https://es.wikipedia.org/wiki/Castilla_y_Le%C3%B3n" xr:uid="{276701BE-342D-4ABB-B97F-787162C80AA0}"/>
+    <hyperlink ref="D37" r:id="rId59" tooltip="Galicia" display="https://es.wikipedia.org/wiki/Galicia" xr:uid="{92312A5C-36C3-4394-8775-CF5606B3F1EF}"/>
+    <hyperlink ref="D36" r:id="rId60" tooltip="Navarra" display="https://es.wikipedia.org/wiki/Navarra" xr:uid="{3071515C-C4B2-49FD-BA5F-A520B44D9891}"/>
+    <hyperlink ref="D35" r:id="rId61" tooltip="Región de Murcia" display="https://es.wikipedia.org/wiki/Regi%C3%B3n_de_Murcia" xr:uid="{303BDE03-E8A6-4427-8D63-B0406D9C5A53}"/>
+    <hyperlink ref="D34" r:id="rId62" display="https://es.wikipedia.org/wiki/Andaluc%C3%ADa" xr:uid="{2F6E92DA-880C-460B-9AD0-7FA099A30542}"/>
+    <hyperlink ref="D33" r:id="rId63" tooltip="Comunidad de Madrid" display="https://es.wikipedia.org/wiki/Comunidad_de_Madrid" xr:uid="{55AAF512-D0C2-43C8-AD85-7C673D585FC4}"/>
+    <hyperlink ref="D32" r:id="rId64" tooltip="Galicia" display="https://es.wikipedia.org/wiki/Galicia" xr:uid="{B0922958-4C83-4086-B2AA-0303BC57F5C6}"/>
+    <hyperlink ref="D31" r:id="rId65" tooltip="Cataluña" display="https://es.wikipedia.org/wiki/Catalu%C3%B1a" xr:uid="{D0B41FD4-8CD7-4C04-8F6D-53090F5B70BD}"/>
+    <hyperlink ref="D30" r:id="rId66" tooltip="Castilla y León" display="https://es.wikipedia.org/wiki/Castilla_y_Le%C3%B3n" xr:uid="{8444C46D-EEE7-41DD-B5B9-438F6B80C83F}"/>
+    <hyperlink ref="D29" r:id="rId67" tooltip="Canarias" display="https://es.wikipedia.org/wiki/Canarias" xr:uid="{EA4FD66A-ABED-4418-9679-9757DAC20A47}"/>
+    <hyperlink ref="D28" r:id="rId68" tooltip="La Rioja (España)" display="https://es.wikipedia.org/wiki/La_Rioja_(Espa%C3%B1a)" xr:uid="{2B9F8EAC-B577-48A1-8A69-C25F69921D5D}"/>
+    <hyperlink ref="D27" r:id="rId69" tooltip="Andalucía" display="https://es.wikipedia.org/wiki/Andaluc%C3%ADa" xr:uid="{00AA193B-985A-4BF4-87B9-7AEE58AC7570}"/>
+    <hyperlink ref="D26" r:id="rId70" tooltip="Aragón" display="https://es.wikipedia.org/wiki/Arag%C3%B3n" xr:uid="{44A3B098-F372-42EF-9990-C8B9D1B21597}"/>
+    <hyperlink ref="D25" r:id="rId71" tooltip="Andalucía" display="https://es.wikipedia.org/wiki/Andaluc%C3%ADa" xr:uid="{64C14D7D-C6A8-4EA5-B0EE-CF337939D636}"/>
+    <hyperlink ref="D24" r:id="rId72" tooltip="Castilla-La Mancha" display="https://es.wikipedia.org/wiki/Castilla-La_Mancha" xr:uid="{31999DA6-02A1-4C85-8F63-1B2C057A7495}"/>
+    <hyperlink ref="D23" r:id="rId73" tooltip="Andalucía" display="https://es.wikipedia.org/wiki/Andaluc%C3%ADa" xr:uid="{BA55D3AB-41BF-433A-B8B6-C09079F4E115}"/>
+    <hyperlink ref="D22" r:id="rId74" tooltip="Cataluña" display="https://es.wikipedia.org/wiki/Catalu%C3%B1a" xr:uid="{34CD6CF1-C1CA-4C31-B1BC-F66BBF155623}"/>
+    <hyperlink ref="D21" r:id="rId75" tooltip="País Vasco" display="https://es.wikipedia.org/wiki/Pa%C3%ADs_Vasco" xr:uid="{7AF738C2-6652-4D1F-A6E4-00F5589945FE}"/>
+    <hyperlink ref="D20" r:id="rId76" tooltip="Castilla-La Mancha" display="https://es.wikipedia.org/wiki/Castilla-La_Mancha" xr:uid="{225AF677-93F0-4A4B-A5CD-6EDA6FA5C01F}"/>
+    <hyperlink ref="D18" r:id="rId77" tooltip="Andalucía" display="https://es.wikipedia.org/wiki/Andaluc%C3%ADa" xr:uid="{0D82B11B-D5BF-4CC1-BD66-50056B2C5464}"/>
+    <hyperlink ref="D17" r:id="rId78" tooltip="Castilla-La Mancha" display="https://es.wikipedia.org/wiki/Castilla-La_Mancha" xr:uid="{5979D82F-DD70-43C5-9963-3B65006BD5A5}"/>
+    <hyperlink ref="D16" r:id="rId79" tooltip="Comunidad Valenciana" display="https://es.wikipedia.org/wiki/Comunidad_Valenciana" xr:uid="{3BF27CB1-7DE3-4CEA-9176-E9DA59C30CD1}"/>
+    <hyperlink ref="D15" r:id="rId80" tooltip="Cantabria" display="https://es.wikipedia.org/wiki/Cantabria" xr:uid="{B09DF3EE-2D05-4215-AC60-2ECEC865ED61}"/>
+    <hyperlink ref="D14" r:id="rId81" tooltip="Andalucía" display="https://es.wikipedia.org/wiki/Andaluc%C3%ADa" xr:uid="{A66A9281-AE7B-4E24-8C73-B890DC4B79E3}"/>
+    <hyperlink ref="D13" r:id="rId82" tooltip="Extremadura" display="https://es.wikipedia.org/wiki/Extremadura" xr:uid="{2AC1E598-EA5E-45AE-BC10-264BA3398D10}"/>
+    <hyperlink ref="D12" r:id="rId83" tooltip="Castilla y León" display="https://es.wikipedia.org/wiki/Castilla_y_Le%C3%B3n" xr:uid="{5DCC5B07-4803-4736-B96F-4E97C91DD793}"/>
+    <hyperlink ref="D11" r:id="rId84" tooltip="País Vasco" display="https://es.wikipedia.org/wiki/Pa%C3%ADs_Vasco" xr:uid="{96018D3C-5DA9-4BF5-AC38-7597499F2C0C}"/>
+    <hyperlink ref="D10" r:id="rId85" tooltip="Cataluña" display="https://es.wikipedia.org/wiki/Catalu%C3%B1a" xr:uid="{C4031EEB-E695-4C13-9014-F12CD61D68C3}"/>
+    <hyperlink ref="D9" r:id="rId86" tooltip="Islas Baleares" display="https://es.wikipedia.org/wiki/Islas_Baleares" xr:uid="{1507AC27-0C21-4407-8B0F-67B7D8104D32}"/>
+    <hyperlink ref="D8" r:id="rId87" tooltip="Extremadura" display="https://es.wikipedia.org/wiki/Extremadura" xr:uid="{BCD2BDDE-0E1C-4982-915A-EA6581DDAA23}"/>
+    <hyperlink ref="D7" r:id="rId88" tooltip="Castilla y León" display="https://es.wikipedia.org/wiki/Castilla_y_Le%C3%B3n" xr:uid="{FC9509B3-F0CA-4069-8BF9-FF5D62824F51}"/>
+    <hyperlink ref="D6" r:id="rId89" tooltip="Asturias" display="https://es.wikipedia.org/wiki/Asturias" xr:uid="{03BB0DC8-0406-4395-B2B0-C5A422A45C2F}"/>
+    <hyperlink ref="D5" r:id="rId90" tooltip="Andalucía" display="https://es.wikipedia.org/wiki/Andaluc%C3%ADa" xr:uid="{16B50E7A-B22B-4650-BD44-8530A9279658}"/>
+    <hyperlink ref="D3" r:id="rId91" tooltip="Comunidad Valenciana" display="https://es.wikipedia.org/wiki/Comunidad_Valenciana" xr:uid="{0BD62DD9-BD3E-4EDB-B309-5305ABBE5FA7}"/>
+    <hyperlink ref="D2" r:id="rId92" tooltip="Castilla-La Mancha" display="https://es.wikipedia.org/wiki/Castilla-La_Mancha" xr:uid="{72AB7B06-82C2-4D46-9AE0-3A4221A4C203}"/>
+    <hyperlink ref="D4" r:id="rId93" tooltip="País Vasco" display="https://es.wikipedia.org/wiki/Pa%C3%ADs_Vasco" xr:uid="{E35FB8B8-7EA9-40ED-BDF7-15EF51853AB0}"/>
+    <hyperlink ref="D19" r:id="rId94" tooltip="Galicia" display="https://es.wikipedia.org/wiki/Galicia" xr:uid="{2B97BB53-3BDB-4CEF-B1E9-7BE5224C147E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId87"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId95"/>
 </worksheet>
 </file>
--- a/data/iso_provinces.xlsx
+++ b/data/iso_provinces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre Computer\Documents\IE_classes\group_dat_2\predict_covid\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A8A779-6376-47FB-BD43-94F4C404A67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2A7CBD-B292-49CD-BF5C-15D9C318E303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="696" windowWidth="19680" windowHeight="11952" xr2:uid="{D9733E20-DD9E-4591-B427-B8CBF6217CBC}"/>
   </bookViews>
@@ -859,7 +859,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
